--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2251214.579000615</v>
+        <v>2251214.579000616</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>497243.9551493591</v>
+        <v>987088.1384132111</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>14.18132220071301</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>312.9807318302823</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>37.24191619104173</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>47.88463526820261</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>159.5756463905746</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>327.1387951101884</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>155.5509599380552</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>14.52687838733143</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>249.8929615153099</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481177</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>168.5240562996611</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>39.64249074263773</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853703</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491434</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>155.3197306044662</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>57.58328081410442</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>110.939503679007</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1607,10 +1607,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.272891771007</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1622,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113175</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274074</v>
@@ -1661,7 +1661,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>78.46129407658272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>144.0800242012098</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>174.3062600431768</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>234.5175081001712</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890329</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2242,19 +2242,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>105.6571329437537</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>50.88816555522337</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.547561058385</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710063</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274094</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465737</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>79.25260017039344</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>104.1263453527894</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2.974076215205373</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>3.347695664762796</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>48.7027337978772</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,16 +2998,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>97.68000121430529</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>217.6716772903236</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>218.5843930538369</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3281,7 +3281,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>28.87478407074701</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,16 +3478,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>281.2000358033541</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3664,19 +3664,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>114.1255415089694</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3718,7 +3718,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>61.57244744068229</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="42">
@@ -3901,16 +3901,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>33.35146980185857</v>
+        <v>45.49367005591656</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>140.5678108961688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4144,16 +4144,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>198.4907239497962</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1584.823100673951</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C2" t="n">
-        <v>1584.823100673951</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>1584.823100673951</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>1199.034848075707</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>788.0489432860991</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>370.0851351842859</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X2" t="n">
-        <v>1584.823100673951</v>
+        <v>1794.737189801198</v>
       </c>
       <c r="Y2" t="n">
-        <v>1584.823100673951</v>
+        <v>1794.737189801198</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4422,16 +4422,16 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247.5125998356232</v>
+        <v>227.8899898843846</v>
       </c>
       <c r="C4" t="n">
-        <v>247.5125998356232</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D4" t="n">
-        <v>247.5125998356232</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>502.1970880415101</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>502.1970880415101</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>502.1970880415101</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V4" t="n">
-        <v>247.5125998356232</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="W4" t="n">
-        <v>247.5125998356232</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="X4" t="n">
-        <v>247.5125998356232</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="Y4" t="n">
-        <v>247.5125998356232</v>
+        <v>409.5384547146243</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1210.087414675782</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>1210.087414675782</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519315</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X5" t="n">
-        <v>1761.414268258235</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y5" t="n">
-        <v>1371.274936282423</v>
+        <v>1387.069036214947</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4644,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C7" t="n">
-        <v>541.5898833044448</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D7" t="n">
-        <v>541.5898833044448</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E7" t="n">
-        <v>393.6767897220517</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F7" t="n">
-        <v>393.6767897220517</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
         <v>99.59950625323012</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>713.4553696737762</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2001.758776122684</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="C8" t="n">
-        <v>2001.758776122684</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4799,55 +4799,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2295.716594368279</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186806</v>
+        <v>2041.954809006371</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186806</v>
+        <v>2041.954809006371</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.358616186806</v>
+        <v>2041.954809006371</v>
       </c>
       <c r="X8" t="n">
-        <v>2388.358616186806</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="Y8" t="n">
-        <v>2388.358616186806</v>
+        <v>1668.489050745291</v>
       </c>
     </row>
     <row r="9">
@@ -4878,19 +4878,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>393.6767897220518</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="C10" t="n">
-        <v>393.6767897220518</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="D10" t="n">
-        <v>393.6767897220518</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="E10" t="n">
-        <v>393.6767897220518</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="F10" t="n">
-        <v>393.6767897220518</v>
+        <v>139.6424261952884</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220518</v>
+        <v>139.6424261952884</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594899</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600558</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942398</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>393.6767897220518</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T10" t="n">
-        <v>393.6767897220518</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="U10" t="n">
-        <v>393.6767897220518</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="V10" t="n">
-        <v>393.6767897220518</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="W10" t="n">
-        <v>393.6767897220518</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="X10" t="n">
-        <v>393.6767897220518</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="Y10" t="n">
-        <v>393.6767897220518</v>
+        <v>286.5323736931988</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5106,37 +5106,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1026.505047571597</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1333.825180851558</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1663.687808515591</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>2103.272883640391</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.3450129705744</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C13" t="n">
-        <v>527.3450129705744</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D13" t="n">
-        <v>527.3450129705744</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5233,16 +5233,16 @@
         <v>874.927113122792</v>
       </c>
       <c r="V13" t="n">
-        <v>816.762183007535</v>
+        <v>874.927113122792</v>
       </c>
       <c r="W13" t="n">
-        <v>527.3450129705744</v>
+        <v>762.8670083965222</v>
       </c>
       <c r="X13" t="n">
-        <v>527.3450129705744</v>
+        <v>762.8670083965222</v>
       </c>
       <c r="Y13" t="n">
-        <v>527.3450129705744</v>
+        <v>762.8670083965222</v>
       </c>
     </row>
     <row r="14">
@@ -5264,10 +5264,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,28 +5276,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5309,7 +5309,7 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
         <v>3931.29497012173</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L15" t="n">
-        <v>779.5615433385053</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M15" t="n">
-        <v>1131.836193506796</v>
+        <v>1019.893908186784</v>
       </c>
       <c r="N15" t="n">
-        <v>1476.356849144414</v>
+        <v>1364.414563824402</v>
       </c>
       <c r="O15" t="n">
-        <v>2145.820610447073</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>843.1711433963917</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C16" t="n">
-        <v>674.2349604684848</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="D16" t="n">
-        <v>674.2349604684848</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>176.4709238608744</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>176.4709238608744</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>176.4709238608744</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>176.4709238608744</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1353.380892576882</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1353.380892576882</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1353.380892576882</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>1063.963722539922</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X16" t="n">
-        <v>1063.963722539922</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y16" t="n">
-        <v>843.1711433963917</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="17">
@@ -5513,19 +5513,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,13 +5549,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L18" t="n">
-        <v>904.39166832551</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M18" t="n">
-        <v>1672.759814717971</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N18" t="n">
-        <v>2017.280470355589</v>
+        <v>2025.317482043085</v>
       </c>
       <c r="O18" t="n">
-        <v>2266.033884439551</v>
+        <v>2025.317482043085</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1141.200876391121</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1322.84934122136</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1322.84934122136</v>
+        <v>1038.244483529053</v>
       </c>
       <c r="V19" t="n">
-        <v>1322.84934122136</v>
+        <v>783.5599953231665</v>
       </c>
       <c r="W19" t="n">
-        <v>1322.84934122136</v>
+        <v>494.1428252862058</v>
       </c>
       <c r="X19" t="n">
-        <v>1322.84934122136</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y19" t="n">
-        <v>1322.84934122136</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5738,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2500.819361250803</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>2626.17692130864</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>3021.459461971185</v>
+        <v>754.8724882112625</v>
       </c>
       <c r="M21" t="n">
-        <v>3789.827608363647</v>
+        <v>754.8724882112625</v>
       </c>
       <c r="N21" t="n">
-        <v>4134.348264001264</v>
+        <v>1364.414563824402</v>
       </c>
       <c r="O21" t="n">
-        <v>4383.101678085227</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P21" t="n">
-        <v>4565.745155698578</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3975.739489936619</v>
+        <v>203.9414681711482</v>
       </c>
       <c r="C22" t="n">
-        <v>3975.739489936619</v>
+        <v>203.9414681711482</v>
       </c>
       <c r="D22" t="n">
-        <v>3825.622850524283</v>
+        <v>203.9414681711482</v>
       </c>
       <c r="E22" t="n">
-        <v>3825.622850524283</v>
+        <v>203.9414681711482</v>
       </c>
       <c r="F22" t="n">
-        <v>3678.732903026373</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3510.557581346193</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014292</v>
+        <v>964.1357418247903</v>
       </c>
       <c r="U22" t="n">
-        <v>4860.854573014292</v>
+        <v>675.0071030383485</v>
       </c>
       <c r="V22" t="n">
-        <v>4606.170084808406</v>
+        <v>675.0071030383485</v>
       </c>
       <c r="W22" t="n">
-        <v>4606.170084808406</v>
+        <v>385.5899330013879</v>
       </c>
       <c r="X22" t="n">
-        <v>4378.180533910388</v>
+        <v>385.5899330013879</v>
       </c>
       <c r="Y22" t="n">
-        <v>4157.387954766858</v>
+        <v>385.5899330013879</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,16 +5972,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -6029,10 +6029,10 @@
         <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>121.3737177204771</v>
       </c>
       <c r="K24" t="n">
-        <v>388.8958536704856</v>
+        <v>532.2639865649898</v>
       </c>
       <c r="L24" t="n">
-        <v>618.8589595388348</v>
+        <v>532.2639865649898</v>
       </c>
       <c r="M24" t="n">
-        <v>939.1942790685366</v>
+        <v>1300.632132957451</v>
       </c>
       <c r="N24" t="n">
-        <v>1743.605857332687</v>
+        <v>2105.043711221602</v>
       </c>
       <c r="O24" t="n">
-        <v>2371.535469249458</v>
+        <v>2353.797125305564</v>
       </c>
       <c r="P24" t="n">
-        <v>2554.178946862809</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4334.963857167336</v>
+        <v>493.3586382081043</v>
       </c>
       <c r="C25" t="n">
-        <v>4166.027674239429</v>
+        <v>493.3586382081043</v>
       </c>
       <c r="D25" t="n">
-        <v>4015.911034827093</v>
+        <v>493.3586382081043</v>
       </c>
       <c r="E25" t="n">
-        <v>3867.997941244695</v>
+        <v>345.4455446257111</v>
       </c>
       <c r="F25" t="n">
-        <v>3721.107993746785</v>
+        <v>345.4455446257111</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746785</v>
+        <v>177.2702229455317</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294728</v>
+        <v>177.2702229455317</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929845</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>4660.934562929845</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>4555.756436310866</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>4555.756436310866</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W25" t="n">
-        <v>4555.756436310866</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X25" t="n">
-        <v>4555.756436310866</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y25" t="n">
-        <v>4334.963857167336</v>
+        <v>675.007103038344</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,40 +6209,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6266,10 +6266,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>618.8589595388348</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>939.1942790685366</v>
+        <v>1429.324563341649</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.071707946799</v>
+        <v>2082.664708052743</v>
       </c>
       <c r="O27" t="n">
-        <v>2371.535469249458</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2554.178946862809</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4039.938241561698</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3871.002058633791</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3867.997941244695</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3867.997941244695</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1495.534759785415</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.85945949167</v>
+        <v>1495.534759785415</v>
       </c>
       <c r="T28" t="n">
-        <v>4549.85945949167</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U28" t="n">
-        <v>4260.730820705228</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V28" t="n">
-        <v>4260.730820705228</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W28" t="n">
-        <v>4260.730820705228</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X28" t="n">
-        <v>4260.730820705228</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y28" t="n">
-        <v>4039.938241561698</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6464,7 +6464,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,31 +6479,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K30" t="n">
-        <v>508.1073603047985</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L30" t="n">
-        <v>508.1073603047985</v>
+        <v>2936.839656295237</v>
       </c>
       <c r="M30" t="n">
-        <v>1276.47550669726</v>
+        <v>3257.174975824938</v>
       </c>
       <c r="N30" t="n">
-        <v>2080.88708496141</v>
+        <v>3601.695631462556</v>
       </c>
       <c r="O30" t="n">
-        <v>2371.535469249458</v>
+        <v>4271.159392765216</v>
       </c>
       <c r="P30" t="n">
-        <v>2554.178946862809</v>
+        <v>4791.460014500963</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>416.2699138005285</v>
+        <v>3778.509585296639</v>
       </c>
       <c r="C31" t="n">
-        <v>247.3337308726216</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>4371.805924143403</v>
       </c>
       <c r="V31" t="n">
-        <v>887.3355486677287</v>
+        <v>4117.121435937516</v>
       </c>
       <c r="W31" t="n">
-        <v>597.9183786307682</v>
+        <v>3827.704265900556</v>
       </c>
       <c r="X31" t="n">
-        <v>597.9183786307682</v>
+        <v>3827.704265900556</v>
       </c>
       <c r="Y31" t="n">
-        <v>597.9183786307682</v>
+        <v>3827.704265900556</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823778</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>388.8958536704856</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>618.8589595388348</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>1387.227105931296</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N33" t="n">
-        <v>2122.782055165496</v>
+        <v>1785.124911043099</v>
       </c>
       <c r="O33" t="n">
-        <v>2371.535469249458</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P33" t="n">
         <v>2554.178946862809</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>245.130185042679</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C34" t="n">
-        <v>245.130185042679</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D34" t="n">
-        <v>245.130185042679</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T34" t="n">
-        <v>1164.055751909234</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="U34" t="n">
-        <v>1164.055751909234</v>
+        <v>4371.805924143403</v>
       </c>
       <c r="V34" t="n">
-        <v>944.1853708078966</v>
+        <v>4371.805924143403</v>
       </c>
       <c r="W34" t="n">
-        <v>654.768200770936</v>
+        <v>4082.388754106442</v>
       </c>
       <c r="X34" t="n">
-        <v>426.7786498729187</v>
+        <v>3861.596437890445</v>
       </c>
       <c r="Y34" t="n">
-        <v>426.7786498729187</v>
+        <v>3640.803858746915</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -7020,22 +7020,22 @@
         <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>904.39166832551</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="M36" t="n">
-        <v>1224.726987855212</v>
+        <v>1442.796708849622</v>
       </c>
       <c r="N36" t="n">
-        <v>1808.163466324677</v>
+        <v>2247.208287113773</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2247.208287113773</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3946.383537937097</v>
+        <v>3768.792616778944</v>
       </c>
       <c r="C37" t="n">
-        <v>3777.44735500919</v>
+        <v>3599.856433851037</v>
       </c>
       <c r="D37" t="n">
-        <v>3627.330715596854</v>
+        <v>3599.856433851037</v>
       </c>
       <c r="E37" t="n">
-        <v>3627.330715596854</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="F37" t="n">
-        <v>3627.330715596854</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916675</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I37" t="n">
         <v>3459.155393916675</v>
@@ -7117,28 +7117,28 @@
         <v>4860.854573014291</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014291</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014291</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014291</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="U37" t="n">
-        <v>4860.854573014291</v>
+        <v>4460.650830789675</v>
       </c>
       <c r="V37" t="n">
-        <v>4860.854573014291</v>
+        <v>4460.650830789675</v>
       </c>
       <c r="W37" t="n">
-        <v>4576.814132808883</v>
+        <v>4171.233660752714</v>
       </c>
       <c r="X37" t="n">
-        <v>4348.824581910866</v>
+        <v>4171.233660752714</v>
       </c>
       <c r="Y37" t="n">
-        <v>4128.032002767336</v>
+        <v>3950.441081609184</v>
       </c>
     </row>
     <row r="38">
@@ -7160,43 +7160,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>388.8958536704856</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>618.8589595388348</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1092.65561809896</v>
+        <v>1269.845481822716</v>
       </c>
       <c r="N39" t="n">
-        <v>1897.067196363111</v>
+        <v>2074.257060086867</v>
       </c>
       <c r="O39" t="n">
-        <v>2145.820610447073</v>
+        <v>2353.797125305564</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>392.0201325405893</v>
+        <v>510.5251492115494</v>
       </c>
       <c r="C40" t="n">
-        <v>392.0201325405893</v>
+        <v>510.5251492115494</v>
       </c>
       <c r="D40" t="n">
-        <v>392.0201325405893</v>
+        <v>360.4085097992137</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>212.4954162168206</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>212.4954162168206</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>212.4954162168206</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7354,28 +7354,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>612.8127116841194</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>612.8127116841194</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X40" t="n">
-        <v>612.8127116841194</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="Y40" t="n">
-        <v>392.0201325405893</v>
+        <v>510.5251492115494</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7403,16 +7403,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,40 +7421,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="K42" t="n">
-        <v>388.8958536704856</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="L42" t="n">
-        <v>618.8589595388348</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="M42" t="n">
-        <v>939.1942790685366</v>
+        <v>3035.48813289884</v>
       </c>
       <c r="N42" t="n">
-        <v>1283.714934706155</v>
+        <v>3365.350760562872</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>4034.814521865532</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>4555.115143601279</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916993</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7597,22 +7597,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U43" t="n">
-        <v>675.007103038344</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324571</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="W43" t="n">
-        <v>130.9054447954965</v>
+        <v>609.3753482118775</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>563.4221461351941</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
         <v>1701.09316900344</v>
@@ -7634,43 +7634,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.043068977053</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="N45" t="n">
-        <v>2112.811595180915</v>
+        <v>1681.846941633687</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>1930.60035571765</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2450.900977453397</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>822.1480540508779</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C46" t="n">
-        <v>822.1480540508779</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D46" t="n">
-        <v>822.1480540508779</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7828,28 +7828,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>964.1357418247858</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>964.1357418247858</v>
+        <v>1043.736101594646</v>
       </c>
       <c r="X46" t="n">
-        <v>964.1357418247858</v>
+        <v>815.7465506966282</v>
       </c>
       <c r="Y46" t="n">
-        <v>964.1357418247858</v>
+        <v>594.9539715530981</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8766,25 +8766,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>161.6616261677809</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>45.40860291750408</v>
+        <v>389.2864419981695</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9255,7 +9255,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9264,7 +9264,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9483,10 +9483,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9720,7 +9720,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9735,10 +9735,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9960,19 +9960,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>326.7449667142039</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10437,7 +10437,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10449,7 +10449,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10668,7 +10668,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10905,7 +10905,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10914,13 +10914,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11136,19 +11136,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>397.6463035559967</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11160,7 +11160,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,25 +11373,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>114.0463621614434</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>194.5543625097236</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>175.583494657584</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>31.95795138768926</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,19 +23704,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>77.46753685717943</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,19 +23941,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>47.24130101521246</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>51.71984429840617</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24130,19 +24130,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>39.76391507917751</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>98.02566281231276</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>31.16664529387856</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>182.111007045788</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>145.641396803007</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>106.61665673903</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>131.1292463840601</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,7 +24853,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24886,16 +24886,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>154.4576421095227</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>34.4659660335044</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>7.12526233520029</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>117.5591785758222</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25366,16 +25366,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>5.322962533236876</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>34.78828685856676</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>190.5651958831457</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25789,16 +25789,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25837,19 +25837,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>192.3581855871786</v>
+        <v>180.2159853331206</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>39.26416928576853</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26068,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>88.03227438679482</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>840712.4784360742</v>
+        <v>840712.4784360743</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>840712.4784360743</v>
+        <v>840712.4784360741</v>
       </c>
     </row>
     <row r="12">
@@ -26314,46 +26314,46 @@
         <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="F2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="G2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="H2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="I2" t="n">
+        <v>527889.2306459073</v>
+      </c>
+      <c r="J2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="K2" t="n">
+        <v>527889.2306459068</v>
+      </c>
+      <c r="L2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="M2" t="n">
         <v>527889.2306459071</v>
       </c>
-      <c r="F2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="G2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="O2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="I2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="J2" t="n">
-        <v>527889.2306459072</v>
-      </c>
-      <c r="K2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="L2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="M2" t="n">
-        <v>527889.2306459068</v>
-      </c>
-      <c r="N2" t="n">
-        <v>527889.2306459068</v>
-      </c>
-      <c r="O2" t="n">
-        <v>527889.2306459068</v>
-      </c>
       <c r="P2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459071</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759314</v>
       </c>
       <c r="F4" t="n">
+        <v>787.7936905758941</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905759274</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905759273</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905759273</v>
+      </c>
+      <c r="J4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="K4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="L4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="M4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="K4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="M4" t="n">
-        <v>787.7936905759103</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758694</v>
@@ -26473,16 +26473,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340944</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26497,19 +26497,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="O5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-257682.9018001817</v>
+        <v>-257682.9018001818</v>
       </c>
       <c r="C6" t="n">
-        <v>332284.9774143624</v>
+        <v>332284.9774143627</v>
       </c>
       <c r="D6" t="n">
-        <v>332284.9774143628</v>
+        <v>332284.9774143625</v>
       </c>
       <c r="E6" t="n">
-        <v>-90045.92547028177</v>
+        <v>-90045.92547028163</v>
       </c>
       <c r="F6" t="n">
+        <v>435114.1110066148</v>
+      </c>
+      <c r="G6" t="n">
+        <v>435114.1110066145</v>
+      </c>
+      <c r="H6" t="n">
+        <v>435114.1110066146</v>
+      </c>
+      <c r="I6" t="n">
+        <v>435114.1110066148</v>
+      </c>
+      <c r="J6" t="n">
+        <v>258690.8918140215</v>
+      </c>
+      <c r="K6" t="n">
+        <v>435114.1110066143</v>
+      </c>
+      <c r="L6" t="n">
         <v>435114.1110066144</v>
       </c>
-      <c r="G6" t="n">
-        <v>435114.1110066144</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="M6" t="n">
+        <v>300313.0957727776</v>
+      </c>
+      <c r="N6" t="n">
+        <v>435114.1110066148</v>
+      </c>
+      <c r="O6" t="n">
         <v>435114.1110066145</v>
       </c>
-      <c r="I6" t="n">
-        <v>435114.1110066145</v>
-      </c>
-      <c r="J6" t="n">
-        <v>258690.8918140219</v>
-      </c>
-      <c r="K6" t="n">
-        <v>435114.1110066144</v>
-      </c>
-      <c r="L6" t="n">
-        <v>435114.1110066145</v>
-      </c>
-      <c r="M6" t="n">
-        <v>300313.0957727772</v>
-      </c>
-      <c r="N6" t="n">
-        <v>435114.1110066142</v>
-      </c>
-      <c r="O6" t="n">
-        <v>435114.1110066143</v>
-      </c>
       <c r="P6" t="n">
-        <v>435114.1110066145</v>
+        <v>435114.1110066146</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26750,7 +26750,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>368.5525194627676</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>10.9420409340749</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27436,7 +27436,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>130.0049049075861</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>164.2609036818163</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>223.158195272906</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>59.09914354586522</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>11.69586116057263</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>197.6186605626875</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>104.7900801053731</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>47.92426405799668</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>116.5283980991574</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>56.82580834555273</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29202,7 +29202,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31142,25 +31142,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392672</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31373,7 +31373,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>86.43447689993508</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31382,7 +31382,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>111.7343803072874</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396472</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>91.883251075293</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31850,7 +31850,7 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>14.66927077757487</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31859,7 +31859,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -32075,10 +32075,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -32093,10 +32093,10 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,16 +32251,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,37 +32312,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>106.5672573837441</v>
+        <v>121.7203317212009</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,28 +32549,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>166.9893280749451</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>267.6984040156786</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32786,31 +32786,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>25.14722391230962</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>383.0062604371802</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677464</v>
@@ -33023,28 +33023,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>422.5825992329737</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33260,25 +33260,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>163.9382446282791</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>42.31815172129825</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -33421,7 +33421,7 @@
         <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041499</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
         <v>526.796267130444</v>
@@ -33500,28 +33500,28 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>394.9841349460421</v>
+        <v>309.5881356180283</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
@@ -33740,19 +33740,19 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>241.3291139715629</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>205.3135880702408</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33892,7 +33892,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961215</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946997</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33974,19 +33974,19 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>155.0114535660845</v>
+        <v>28.60249689837303</v>
       </c>
       <c r="N39" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946997</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34208,22 +34208,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>278.4799167015761</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
         <v>341.0678223458549</v>
@@ -34372,7 +34372,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130445</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565518</v>
@@ -34448,25 +34448,25 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>93.5837952647594</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35173,25 +35173,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770686</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355132</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>362.6699330377951</v>
       </c>
       <c r="O12" t="n">
-        <v>444.025328408889</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>355.8329799679704</v>
+        <v>699.7108190486358</v>
       </c>
       <c r="N15" t="n">
         <v>348.0006622602202</v>
@@ -35741,10 +35741,10 @@
         <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>291.055618609351</v>
+        <v>306.2086929468078</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>399.2752935985301</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>615.6990662758989</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>24.40063258605176</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>634.2723352694653</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>770.583261493194</v>
+        <v>659.9395401122167</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>25.3838648484049</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>293.5842265535833</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37069,7 +37069,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303341</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37148,22 +37148,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>742.9847972062623</v>
+        <v>178.246423534695</v>
       </c>
       <c r="O33" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37388,25 +37388,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>589.3297762317832</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>71.33918065591057</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37558,7 +37558,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
@@ -37622,25 +37622,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>478.5824833940661</v>
+        <v>352.1735267263546</v>
       </c>
       <c r="N39" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37789,13 +37789,13 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>708.0706806064629</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>529.7459915338612</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -37880,7 +37880,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>447.2409355594563</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>163.679308914587</v>
       </c>
       <c r="R45" t="n">
         <v>10.73738595686864</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2251214.579000616</v>
+        <v>2326744.248665421</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>987088.1384132111</v>
+        <v>1265179.641598911</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.18132220071301</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,10 +667,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>403.901385383297</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>37.24191619104173</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>99.660750746876</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>170.4011535376021</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>327.1387951101884</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,22 +1098,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>14.52687838733143</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>149.5016744085789</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>168.5240562996611</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>105.9455272731798</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1300,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>39.64249074263773</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>31.28468245238251</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1537,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>20.36858300690228</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,19 +1578,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>110.939503679007</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.272891771007</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,7 +1624,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274074</v>
@@ -1661,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>78.46129407658272</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>133.145412797856</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>234.5175081001712</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890329</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>105.6571329437537</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>15.74955790720895</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.547561058385</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710063</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274094</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>79.25260017039344</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467007</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>77.86828753831598</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>3.347695664762796</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,10 +2769,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2798,13 +2800,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>48.7027337978772</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2962,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>70.98684734308382</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>255.4853389885909</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>218.5843930538369</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3281,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3421,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>28.87478407074701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3670,13 +3672,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>114.1255415089694</v>
+        <v>122.3137095599312</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3721,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467005</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>45.49367005591656</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>198.4907239497962</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1780.41262192169</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>879.8879872790433</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>879.8879872790433</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2520.971603332393</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>2168.202948062278</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X2" t="n">
-        <v>1794.737189801198</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y2" t="n">
-        <v>1794.737189801198</v>
+        <v>1624.753525949915</v>
       </c>
     </row>
     <row r="3">
@@ -4410,16 +4412,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>227.8899898843846</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4519,19 +4521,19 @@
         <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146243</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>409.5384547146243</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="W4" t="n">
-        <v>409.5384547146243</v>
+        <v>154.6104068172089</v>
       </c>
       <c r="X4" t="n">
-        <v>409.5384547146243</v>
+        <v>154.6104068172089</v>
       </c>
       <c r="Y4" t="n">
-        <v>409.5384547146243</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1387.069036214947</v>
+        <v>1336.435086552838</v>
       </c>
       <c r="C5" t="n">
-        <v>1018.106519274536</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598976</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1717.512263598976</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>1717.512263598976</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y5" t="n">
-        <v>1387.069036214947</v>
+        <v>1723.03492661696</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4653,34 +4655,34 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713.4553696737762</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C7" t="n">
-        <v>544.5191867458693</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>394.4025473335336</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511405</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>713.4553696737762</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>713.4553696737762</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U7" t="n">
-        <v>713.4553696737762</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="V7" t="n">
-        <v>713.4553696737762</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="W7" t="n">
-        <v>713.4553696737762</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="X7" t="n">
-        <v>713.4553696737762</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="Y7" t="n">
-        <v>713.4553696737762</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1668.489050745291</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C8" t="n">
-        <v>1299.526533804879</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>941.2608351981287</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4805,10 +4807,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4832,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2295.716594368279</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2041.954809006371</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V8" t="n">
-        <v>2041.954809006371</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W8" t="n">
-        <v>2041.954809006371</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="X8" t="n">
-        <v>1668.489050745291</v>
+        <v>2140.292562720626</v>
       </c>
       <c r="Y8" t="n">
-        <v>1668.489050745291</v>
+        <v>1750.153230744814</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4883,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>286.5323736931988</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>286.5323736931988</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>286.5323736931988</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>286.5323736931988</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>139.6424261952884</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>139.6424261952884</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
         <v>99.59950625323012</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>513.840561024597</v>
+        <v>548.3816362947775</v>
       </c>
       <c r="T10" t="n">
-        <v>286.5323736931988</v>
+        <v>548.3816362947775</v>
       </c>
       <c r="U10" t="n">
-        <v>286.5323736931988</v>
+        <v>548.3816362947775</v>
       </c>
       <c r="V10" t="n">
-        <v>286.5323736931988</v>
+        <v>548.3816362947775</v>
       </c>
       <c r="W10" t="n">
-        <v>286.5323736931988</v>
+        <v>548.3816362947775</v>
       </c>
       <c r="X10" t="n">
-        <v>286.5323736931988</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="Y10" t="n">
-        <v>286.5323736931988</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5030,19 +5032,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,7 +5053,7 @@
         <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5060,31 +5062,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5106,31 +5108,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>479.098332261396</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>581.2185435662825</v>
+        <v>716.8555221680796</v>
       </c>
       <c r="C13" t="n">
-        <v>412.2823606383756</v>
+        <v>547.9193392401727</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383756</v>
+        <v>547.9193392401727</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>547.9193392401727</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5224,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>874.927113122792</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>874.927113122792</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W13" t="n">
-        <v>762.8670083965222</v>
+        <v>898.5039869983193</v>
       </c>
       <c r="X13" t="n">
-        <v>762.8670083965222</v>
+        <v>898.5039869983193</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.8670083965222</v>
+        <v>898.5039869983193</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5260,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,10 +5296,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5309,7 +5311,7 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.29497012173</v>
@@ -5355,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L15" t="n">
-        <v>327.180197328635</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M15" t="n">
-        <v>1019.893908186784</v>
+        <v>1357.551052309181</v>
       </c>
       <c r="N15" t="n">
-        <v>1364.414563824402</v>
+        <v>1702.071707946799</v>
       </c>
       <c r="O15" t="n">
-        <v>2033.878325127062</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P15" t="n">
         <v>2554.178946862809</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>324.3840174432676</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>324.3840174432676</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>324.3840174432676</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>176.4709238608744</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>176.4709238608744</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>176.4709238608744</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>176.4709238608744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5470,16 +5472,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>954.8146123150548</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X16" t="n">
-        <v>726.8250614170374</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y16" t="n">
-        <v>506.0324822735073</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="17">
@@ -5510,49 +5512,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5746515181232</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>452.5377573864724</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1220.905903778934</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>2025.317482043085</v>
+        <v>2107.322705390779</v>
       </c>
       <c r="O18" t="n">
-        <v>2025.317482043085</v>
+        <v>2386.862770609477</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>493.3586382081045</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>493.3586382081045</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>343.2419987957687</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>343.2419987957687</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>343.2419987957687</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>343.2419987957687</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>1038.244483529053</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>783.5599953231665</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W19" t="n">
-        <v>494.1428252862058</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="X19" t="n">
-        <v>266.1532743881928</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="Y19" t="n">
-        <v>266.1532743881928</v>
+        <v>675.0071030383442</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,28 +5737,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5765,37 +5767,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047985</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="L21" t="n">
-        <v>754.8724882112625</v>
+        <v>510.3034215191124</v>
       </c>
       <c r="M21" t="n">
-        <v>754.8724882112625</v>
+        <v>1278.671567911574</v>
       </c>
       <c r="N21" t="n">
-        <v>1364.414563824402</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O21" t="n">
-        <v>2033.878325127062</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>203.9414681711482</v>
+        <v>579.068505649155</v>
       </c>
       <c r="C22" t="n">
-        <v>203.9414681711482</v>
+        <v>410.1323227212481</v>
       </c>
       <c r="D22" t="n">
-        <v>203.9414681711482</v>
+        <v>260.0156833089123</v>
       </c>
       <c r="E22" t="n">
-        <v>203.9414681711482</v>
+        <v>260.0156833089123</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>113.125735811002</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247903</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>675.0071030383485</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V22" t="n">
-        <v>675.0071030383485</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W22" t="n">
-        <v>385.5899330013879</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X22" t="n">
-        <v>385.5899330013879</v>
+        <v>981.5095496229249</v>
       </c>
       <c r="Y22" t="n">
-        <v>385.5899330013879</v>
+        <v>760.7169704793947</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>121.3737177204771</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>532.2639865649898</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>532.2639865649898</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.632132957451</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="N24" t="n">
-        <v>2105.043711221602</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="O24" t="n">
-        <v>2353.797125305564</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>493.3586382081043</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C25" t="n">
-        <v>493.3586382081043</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D25" t="n">
-        <v>493.3586382081043</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E25" t="n">
-        <v>345.4455446257111</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F25" t="n">
-        <v>345.4455446257111</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G25" t="n">
-        <v>177.2702229455317</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H25" t="n">
-        <v>177.2702229455317</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U25" t="n">
-        <v>675.007103038344</v>
+        <v>4452.039182201071</v>
       </c>
       <c r="V25" t="n">
-        <v>675.007103038344</v>
+        <v>4197.354693995184</v>
       </c>
       <c r="W25" t="n">
-        <v>675.007103038344</v>
+        <v>3907.937523958223</v>
       </c>
       <c r="X25" t="n">
-        <v>675.007103038344</v>
+        <v>3679.947973060206</v>
       </c>
       <c r="Y25" t="n">
-        <v>675.007103038344</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="26">
@@ -6215,37 +6217,37 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6260,7 +6262,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
@@ -6291,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047985</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L27" t="n">
-        <v>1122.004430061687</v>
+        <v>877.435363369537</v>
       </c>
       <c r="M27" t="n">
-        <v>1429.324563341649</v>
+        <v>1387.765035414674</v>
       </c>
       <c r="N27" t="n">
-        <v>2082.664708052743</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>175.8719273575747</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>175.8719273575747</v>
       </c>
       <c r="D28" t="n">
         <v>97.21709146028584</v>
@@ -6388,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1495.534759785415</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1495.534759785415</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1271.749344574921</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>1271.749344574921</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="V28" t="n">
-        <v>1017.064856369034</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="W28" t="n">
-        <v>727.647686332073</v>
+        <v>585.5099430858318</v>
       </c>
       <c r="X28" t="n">
-        <v>499.6581354340557</v>
+        <v>357.5203921878144</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>357.5203921878144</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6442,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6461,16 +6463,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6482,28 +6484,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250803</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095316</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>2936.839656295237</v>
+        <v>1120.26893587578</v>
       </c>
       <c r="M30" t="n">
-        <v>3257.174975824938</v>
+        <v>1440.604255405482</v>
       </c>
       <c r="N30" t="n">
-        <v>3601.695631462556</v>
+        <v>1785.124911043099</v>
       </c>
       <c r="O30" t="n">
-        <v>4271.159392765216</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P30" t="n">
-        <v>4791.460014500963</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3778.509585296639</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="C31" t="n">
-        <v>3609.573402368732</v>
+        <v>337.0962993456004</v>
       </c>
       <c r="D31" t="n">
-        <v>3609.573402368732</v>
+        <v>337.0962993456004</v>
       </c>
       <c r="E31" t="n">
-        <v>3609.573402368732</v>
+        <v>337.0962993456004</v>
       </c>
       <c r="F31" t="n">
-        <v>3609.573402368732</v>
+        <v>337.0962993456004</v>
       </c>
       <c r="G31" t="n">
-        <v>3609.573402368732</v>
+        <v>168.920977665421</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>4371.805924143403</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>4117.121435937516</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W31" t="n">
-        <v>3827.704265900556</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X31" t="n">
-        <v>3827.704265900556</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y31" t="n">
-        <v>3827.704265900556</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823778</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6719,10 +6721,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>244.1218040742595</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>490.8869319807235</v>
       </c>
       <c r="M33" t="n">
-        <v>1608.660951743751</v>
+        <v>798.2070652606851</v>
       </c>
       <c r="N33" t="n">
-        <v>1785.124911043099</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O33" t="n">
-        <v>2033.878325127062</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4660.934562929845</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>4371.805924143403</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V34" t="n">
-        <v>4371.805924143403</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W34" t="n">
-        <v>4082.388754106442</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X34" t="n">
-        <v>3861.596437890445</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>3640.803858746915</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6953,34 +6955,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>674.4285624571608</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M36" t="n">
-        <v>1442.796708849622</v>
+        <v>1244.512444577577</v>
       </c>
       <c r="N36" t="n">
-        <v>2247.208287113773</v>
+        <v>2048.924022841727</v>
       </c>
       <c r="O36" t="n">
-        <v>2247.208287113773</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3768.792616778944</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C37" t="n">
-        <v>3599.856433851037</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D37" t="n">
-        <v>3599.856433851037</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E37" t="n">
-        <v>3570.689985294727</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F37" t="n">
-        <v>3570.689985294727</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="G37" t="n">
-        <v>3570.689985294727</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294727</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576117</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>4749.779469576117</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>4749.779469576117</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U37" t="n">
-        <v>4460.650830789675</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V37" t="n">
-        <v>4460.650830789675</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W37" t="n">
-        <v>4171.233660752714</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X37" t="n">
-        <v>4171.233660752714</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y37" t="n">
-        <v>3950.441081609184</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,13 +7162,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7190,10 +7192,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7205,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7257,22 +7259,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="M39" t="n">
-        <v>1269.845481822716</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="N39" t="n">
-        <v>2074.257060086867</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O39" t="n">
-        <v>2353.797125305564</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>510.5251492115494</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C40" t="n">
-        <v>510.5251492115494</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="D40" t="n">
-        <v>360.4085097992137</v>
+        <v>515.5693341162774</v>
       </c>
       <c r="E40" t="n">
-        <v>212.4954162168206</v>
+        <v>367.6562405338843</v>
       </c>
       <c r="F40" t="n">
-        <v>212.4954162168206</v>
+        <v>220.766293035974</v>
       </c>
       <c r="G40" t="n">
-        <v>212.4954162168206</v>
+        <v>220.766293035974</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7360,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>731.3177283550796</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>731.3177283550796</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y40" t="n">
-        <v>510.5251492115494</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="41">
@@ -7388,31 +7390,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,16 +7423,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2334.498159098442</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>2334.498159098442</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>2334.498159098442</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M42" t="n">
-        <v>3035.48813289884</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>3365.350760562872</v>
+        <v>2107.32270539078</v>
       </c>
       <c r="O42" t="n">
-        <v>4034.814521865532</v>
+        <v>2386.862770609478</v>
       </c>
       <c r="P42" t="n">
-        <v>4555.115143601279</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>4850.224560916993</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U43" t="n">
-        <v>898.7925182488382</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>898.7925182488382</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>609.3753482118775</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>563.4221461351941</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7637,28 +7639,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643324</v>
@@ -7667,10 +7669,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="K45" t="n">
-        <v>263.5382936126482</v>
+        <v>2459.855719156278</v>
       </c>
       <c r="L45" t="n">
-        <v>877.4353633695368</v>
+        <v>2689.818825024627</v>
       </c>
       <c r="M45" t="n">
-        <v>877.4353633695368</v>
+        <v>3217.994400417103</v>
       </c>
       <c r="N45" t="n">
-        <v>1681.846941633687</v>
+        <v>4022.405978681254</v>
       </c>
       <c r="O45" t="n">
-        <v>1930.60035571765</v>
+        <v>4271.159392765216</v>
       </c>
       <c r="P45" t="n">
-        <v>2450.900977453397</v>
+        <v>4791.460014500963</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S45" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X45" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="46">
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>1043.736101594646</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>815.7465506966282</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>594.9539715530981</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8547,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8781,7 +8783,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,13 +9008,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>389.2864419981695</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9027,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,19 +9482,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9501,7 +9503,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,25 +9722,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>214.6643442733995</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,28 +9956,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>326.7449667142039</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,16 +10427,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>433.4191424169867</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10686,7 +10688,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10905,25 +10907,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11069,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11145,22 +11147,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>397.6463035559967</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -23425,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>125.052465016029</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,19 +23466,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>175.583494657584</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>31.95795138768926</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,16 +23712,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>15.76841556968009</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>51.71984429840617</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24127,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>39.76391507917751</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>150.7440105561686</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>31.16664529387856</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>103.0576765518767</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>70.74718547989637</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>106.61665673903</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24655,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>131.1292463840601</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>77.9269810244523</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24886,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25123,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>30.75201340998646</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>7.12526233520029</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>117.5591785758222</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>77.06777566241342</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25558,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>34.78828685856676</v>
+        <v>26.60011880760489</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25600,7 +25602,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25789,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>180.2159853331206</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26071,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>88.03227438679482</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>840712.4784360743</v>
+        <v>840712.4784360742</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>840712.4784360741</v>
+        <v>840712.4784360743</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>840712.4784360743</v>
+        <v>840712.4784360742</v>
       </c>
     </row>
     <row r="15">
@@ -26317,43 +26319,43 @@
         <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="F2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="G2" t="n">
         <v>527889.2306459072</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="J2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="K2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="L2" t="n">
+        <v>527889.2306459068</v>
+      </c>
+      <c r="M2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="N2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="O2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="P2" t="n">
         <v>527889.2306459072</v>
-      </c>
-      <c r="I2" t="n">
-        <v>527889.2306459073</v>
-      </c>
-      <c r="J2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="K2" t="n">
-        <v>527889.2306459068</v>
-      </c>
-      <c r="L2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="M2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="N2" t="n">
-        <v>527889.2306459072</v>
-      </c>
-      <c r="O2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="P2" t="n">
-        <v>527889.2306459071</v>
       </c>
     </row>
     <row r="3">
@@ -26396,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.310193849552888e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905759314</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758941</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905759274</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905759273</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905759273</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26476,31 +26478,31 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26525,43 +26527,43 @@
         <v>332284.9774143627</v>
       </c>
       <c r="D6" t="n">
-        <v>332284.9774143625</v>
+        <v>332284.9774143627</v>
       </c>
       <c r="E6" t="n">
-        <v>-90045.92547028163</v>
+        <v>-90045.92547028176</v>
       </c>
       <c r="F6" t="n">
+        <v>435114.1110066145</v>
+      </c>
+      <c r="G6" t="n">
         <v>435114.1110066148</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>435114.1110066145</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
+        <v>435114.1110066145</v>
+      </c>
+      <c r="J6" t="n">
+        <v>258690.8918140216</v>
+      </c>
+      <c r="K6" t="n">
+        <v>435114.1110066148</v>
+      </c>
+      <c r="L6" t="n">
+        <v>435114.1110066143</v>
+      </c>
+      <c r="M6" t="n">
+        <v>300313.0957727775</v>
+      </c>
+      <c r="N6" t="n">
         <v>435114.1110066146</v>
       </c>
-      <c r="I6" t="n">
+      <c r="O6" t="n">
+        <v>435114.1110066144</v>
+      </c>
+      <c r="P6" t="n">
         <v>435114.1110066148</v>
-      </c>
-      <c r="J6" t="n">
-        <v>258690.8918140215</v>
-      </c>
-      <c r="K6" t="n">
-        <v>435114.1110066143</v>
-      </c>
-      <c r="L6" t="n">
-        <v>435114.1110066144</v>
-      </c>
-      <c r="M6" t="n">
-        <v>300313.0957727776</v>
-      </c>
-      <c r="N6" t="n">
-        <v>435114.1110066148</v>
-      </c>
-      <c r="O6" t="n">
-        <v>435114.1110066145</v>
-      </c>
-      <c r="P6" t="n">
-        <v>435114.1110066146</v>
       </c>
     </row>
   </sheetData>
@@ -26738,28 +26740,28 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26774,10 +26776,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>540.9263704990174</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545554</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>540.9263704990171</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990169</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>368.5525194627676</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,10 +27387,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.97466035841444</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>130.0049049075861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,7 +27557,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27591,19 +27593,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>118.9239026052188</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>194.8717382334054</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>59.09914354586522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27816,22 +27818,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>197.6186605626875</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>102.6359689152491</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>47.92426405799668</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>263.7855734052893</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,13 +28022,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>116.5283980991574</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28056,13 +28058,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>180.8608564976364</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31142,7 +31144,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>73.87984549392672</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479578</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31373,7 +31375,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576413</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>111.7343803072874</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,19 +31840,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>331.8073893088567</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>14.66927077757487</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,16 +32077,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>34.77051449707545</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -32093,13 +32095,13 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,37 +32314,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>121.7203317212009</v>
+        <v>285.0631269188133</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>267.6984040156786</v>
+        <v>176.1022532102877</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>25.14722391230962</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>191.9134873893287</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,13 +33262,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>163.9382446282791</v>
+        <v>386.0590603056891</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -33275,7 +33277,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458549</v>
@@ -33500,28 +33502,28 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>244.3198586194258</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>309.5881356180283</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33749,10 +33751,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>205.3135880702408</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33910,13 +33912,13 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946997</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S38" t="n">
         <v>76.06970478104648</v>
@@ -33977,19 +33979,19 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>225.9373985850584</v>
       </c>
       <c r="M39" t="n">
-        <v>28.60249689837303</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>285.0631269188124</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130445</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.490283364748</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>209.9396523866405</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>93.5837952647594</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,7 +34792,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35021,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>193.2530095289825</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>362.6699330377951</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>699.7108190486358</v>
+        <v>358.341544325057</v>
       </c>
       <c r="N15" t="n">
         <v>348.0006622602202</v>
@@ -35741,7 +35743,7 @@
         <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>306.2086929468078</v>
+        <v>151.0887195044831</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>615.6990662758989</v>
+        <v>524.1029154705079</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>24.40063258605176</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>525.0887213238659</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>515.4845172173103</v>
       </c>
       <c r="N27" t="n">
-        <v>659.9395401122167</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O27" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>25.3838648484049</v>
+        <v>618.3450258292741</v>
       </c>
       <c r="M30" t="n">
         <v>323.5710298279816</v>
@@ -36923,7 +36925,7 @@
         <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>106.4784196450668</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>178.246423534695</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37391,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>743.8435194674529</v>
       </c>
       <c r="N36" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>71.33918065591057</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37558,13 +37560,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>458.2233641086434</v>
       </c>
       <c r="M39" t="n">
-        <v>352.1735267263546</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>708.0706806064629</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>151.0887195044822</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>533.5106822146221</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
-        <v>163.679308914587</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2326744.248665421</v>
+        <v>2319727.23377371</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1265179.641598911</v>
+        <v>592909.6145195157</v>
       </c>
     </row>
     <row r="8">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>403.901385383297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>113.9617365018818</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.54503968478</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.660750746876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>170.4011535376021</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>57.44899573820114</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>66.17512620685359</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>149.5016744085789</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>105.9455272731798</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>31.28468245238251</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>20.36858300690228</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>198.9945488676096</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2007,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>133.145412797856</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>55.43957709489211</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>15.74955790720895</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>109.6778012403077</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>183.1796758467007</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>77.86828753831598</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>27.95833909584147</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>70.98684734308382</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>200.4177990254176</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>149.0799667719507</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>255.4853389885909</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>33.35146980185857</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>56.5119402077288</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,19 +3666,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>122.3137095599312</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>183.1796758467005</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151922</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1238.153685885794</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C2" t="n">
-        <v>1238.153685885794</v>
+        <v>920.0552989279786</v>
       </c>
       <c r="D2" t="n">
-        <v>879.8879872790433</v>
+        <v>561.7896003212281</v>
       </c>
       <c r="E2" t="n">
-        <v>879.8879872790433</v>
+        <v>176.0013477229839</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>169.0558469737804</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.358616186807</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.892857925727</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1624.753525949915</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4406,46 +4406,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4512,28 +4512,28 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="V4" t="n">
-        <v>444.0275768541695</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="W4" t="n">
-        <v>154.6104068172089</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="X4" t="n">
-        <v>154.6104068172089</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124031</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1336.435086552838</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C5" t="n">
-        <v>1164.312709242129</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2584.09111292427</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2330.329327562361</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>1999.266440218791</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>1646.497784948677</v>
       </c>
       <c r="X5" t="n">
-        <v>2113.174258592771</v>
+        <v>1273.032026687597</v>
       </c>
       <c r="Y5" t="n">
-        <v>1723.03492661696</v>
+        <v>882.8926947117852</v>
       </c>
     </row>
     <row r="6">
@@ -4646,31 +4646,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>631.8685032349517</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>417.5800800531144</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286581</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="U7" t="n">
-        <v>471.4038777286581</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="V7" t="n">
-        <v>320.3920853967602</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="W7" t="n">
-        <v>320.3920853967602</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="X7" t="n">
-        <v>320.3920853967602</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.553390680693</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2140.292562720626</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1750.153230744814</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4895,10 +4895,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>548.3816362947775</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>548.3816362947775</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>548.3816362947775</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>548.3816362947775</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>548.3816362947775</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>320.3920853967602</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5029,10 +5029,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5041,16 +5041,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>479.098332261396</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1131.836193506796</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1476.356849144414</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>716.8555221680796</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="C13" t="n">
-        <v>547.9193392401727</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D13" t="n">
-        <v>547.9193392401727</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E13" t="n">
-        <v>547.9193392401727</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.92115703528</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W13" t="n">
-        <v>898.5039869983193</v>
+        <v>843.3071774518004</v>
       </c>
       <c r="X13" t="n">
-        <v>898.5039869983193</v>
+        <v>615.317626553783</v>
       </c>
       <c r="Y13" t="n">
-        <v>898.5039869983193</v>
+        <v>394.5250474102529</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,7 +5278,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514082</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>1002.792923427374</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>1357.551052309181</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="N15" t="n">
-        <v>1702.071707946799</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O15" t="n">
-        <v>2371.535469249458</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5512,49 +5512,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N18" t="n">
-        <v>2107.322705390779</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O18" t="n">
-        <v>2386.862770609477</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>493.3586382081045</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C19" t="n">
-        <v>493.3586382081045</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D19" t="n">
-        <v>343.2419987957687</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E19" t="n">
-        <v>343.2419987957687</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>343.2419987957687</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>343.2419987957687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5700,25 +5700,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383442</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V19" t="n">
-        <v>675.0071030383442</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W19" t="n">
-        <v>675.0071030383442</v>
+        <v>1042.712955510163</v>
       </c>
       <c r="X19" t="n">
-        <v>675.0071030383442</v>
+        <v>814.7234046121455</v>
       </c>
       <c r="Y19" t="n">
-        <v>675.0071030383442</v>
+        <v>593.9308254686154</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5746,19 +5746,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5767,37 +5767,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>263.5382936126483</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>510.3034215191124</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>1278.671567911574</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>579.068505649155</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C22" t="n">
-        <v>410.1323227212481</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D22" t="n">
-        <v>260.0156833089123</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
-        <v>260.0156833089123</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>113.125735811002</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1388.13061273941</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1388.13061273941</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557903</v>
+        <v>1388.13061273941</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557903</v>
+        <v>1133.446124533523</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.499100520942</v>
+        <v>844.0289544965622</v>
       </c>
       <c r="X22" t="n">
-        <v>981.5095496229249</v>
+        <v>616.0394035985448</v>
       </c>
       <c r="Y22" t="n">
-        <v>760.7169704793947</v>
+        <v>395.2468244550147</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>1808.163466324677</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014293</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>4637.069157803799</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>4452.039182201071</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>4197.354693995184</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>3907.937523958223</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>3679.947973060206</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6229,7 +6229,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6241,13 +6241,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6262,7 +6262,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>877.435363369537</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1387.765035414674</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>2192.176613678825</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>175.8719273575747</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="C28" t="n">
-        <v>175.8719273575747</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,10 +6402,10 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
         <v>1387.841167119728</v>
@@ -6417,19 +6417,19 @@
         <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>874.9271131227924</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V28" t="n">
-        <v>874.9271131227924</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W28" t="n">
-        <v>585.5099430858318</v>
+        <v>874.6385818722731</v>
       </c>
       <c r="X28" t="n">
-        <v>357.5203921878144</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="Y28" t="n">
-        <v>357.5203921878144</v>
+        <v>846.3978353108171</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
         <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>1120.26893587578</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>1440.604255405482</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
-        <v>1785.124911043099</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>2033.878325127062</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>506.0324822735073</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C31" t="n">
-        <v>337.0962993456004</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>337.0962993456004</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>337.0962993456004</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>337.0962993456004</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>168.920977665421</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6651,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352015</v>
+        <v>783.5599953231708</v>
       </c>
       <c r="W31" t="n">
-        <v>954.8146123150548</v>
+        <v>494.1428252862102</v>
       </c>
       <c r="X31" t="n">
-        <v>726.8250614170374</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y31" t="n">
-        <v>506.0324822735073</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6691,19 +6691,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,34 +6718,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>244.1218040742595</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>490.8869319807235</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>798.2070652606851</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1348.33044553573</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U34" t="n">
-        <v>1017.064856369034</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V34" t="n">
-        <v>1017.064856369034</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>727.647686332073</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>499.6581354340557</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,19 +6937,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6964,25 +6964,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7022,19 +7022,19 @@
         <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>508.1073603047985</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>1244.512444577577</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>2048.924022841727</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.9054447954965</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C37" t="n">
-        <v>130.9054447954965</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D37" t="n">
-        <v>130.9054447954965</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E37" t="n">
-        <v>130.9054447954965</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F37" t="n">
-        <v>130.9054447954965</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>130.9054447954965</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>130.9054447954965</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>420.3226148324571</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>130.9054447954965</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="X37" t="n">
-        <v>130.9054447954965</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.9054447954965</v>
+        <v>674.2349604684848</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7165,37 +7165,37 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>1128.069692924718</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1128.069692924718</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.069692924718</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>515.5693341162774</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>367.6562405338843</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>220.766293035974</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>220.766293035974</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1031435655738</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W40" t="n">
-        <v>665.6859735286132</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X40" t="n">
-        <v>665.6859735286132</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y40" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7414,16 +7414,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7435,28 +7435,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7478,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277034</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>865.5852378527474</v>
       </c>
       <c r="N42" t="n">
-        <v>2107.32270539078</v>
+        <v>1669.996816116898</v>
       </c>
       <c r="O42" t="n">
-        <v>2386.862770609478</v>
+        <v>2339.460577419557</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7572,13 +7572,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,31 +7587,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
         <v>97.21709146028584</v>
@@ -7639,10 +7639,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7663,13 +7663,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>2459.855719156278</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>2689.818825024627</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>3217.994400417103</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N45" t="n">
-        <v>4022.405978681254</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O45" t="n">
-        <v>4271.159392765216</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>4791.460014500963</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7809,13 +7809,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,25 +7824,25 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
         <v>325.2066423583032</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8783,16 +8783,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9014,10 +9014,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>158.9979480233626</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,22 +9725,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>214.6643442733995</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9968,16 +9968,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10205,16 +10205,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>433.4191424169867</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10910,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>195.7226894765961</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11153,16 +11153,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>125.052465016029</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>87.52844946898139</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>15.76841556968009</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>231.0834212416989</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>150.7440105561686</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>88.24300874329558</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24186,7 +24186,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>103.0576765518767</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>70.74718547989637</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>197.7513162931957</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>77.9269810244523</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24891,13 +24891,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>51.71984429841038</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>48.84084321165253</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>30.75201340998646</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>77.06777566241342</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>230.0110581288622</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25554,19 +25554,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>26.60011880760489</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>14.74113413690304</v>
       </c>
     </row>
     <row r="41">
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>103.0576765518769</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338511</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>840712.4784360742</v>
+        <v>840712.4784360743</v>
       </c>
     </row>
     <row r="15">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583912</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583913</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583912</v>
-      </c>
       <c r="D2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="F2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="G2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.230645907</v>
       </c>
       <c r="H2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="I2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="J2" t="n">
         <v>527889.230645907</v>
@@ -26343,19 +26343,19 @@
         <v>527889.2306459071</v>
       </c>
       <c r="L2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="M2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="N2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="O2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="P2" t="n">
         <v>527889.2306459068</v>
-      </c>
-      <c r="M2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="N2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="O2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="P2" t="n">
-        <v>527889.2306459072</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.310193849552888e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="F4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="F4" t="n">
-        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758695</v>
@@ -26456,7 +26456,7 @@
         <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758695</v>
@@ -26469,43 +26469,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-257682.9018001818</v>
+        <v>-257682.9018001819</v>
       </c>
       <c r="C6" t="n">
-        <v>332284.9774143627</v>
+        <v>332284.9774143628</v>
       </c>
       <c r="D6" t="n">
-        <v>332284.9774143627</v>
+        <v>332284.9774143625</v>
       </c>
       <c r="E6" t="n">
-        <v>-90045.92547028176</v>
+        <v>-91020.51673000341</v>
       </c>
       <c r="F6" t="n">
-        <v>435114.1110066145</v>
+        <v>434139.5197468929</v>
       </c>
       <c r="G6" t="n">
-        <v>435114.1110066148</v>
+        <v>434139.5197468929</v>
       </c>
       <c r="H6" t="n">
-        <v>435114.1110066145</v>
+        <v>434139.519746893</v>
       </c>
       <c r="I6" t="n">
-        <v>435114.1110066145</v>
+        <v>434139.5197468927</v>
       </c>
       <c r="J6" t="n">
-        <v>258690.8918140216</v>
+        <v>257716.3005542998</v>
       </c>
       <c r="K6" t="n">
-        <v>435114.1110066148</v>
+        <v>434139.519746893</v>
       </c>
       <c r="L6" t="n">
-        <v>435114.1110066143</v>
+        <v>434139.5197468929</v>
       </c>
       <c r="M6" t="n">
-        <v>300313.0957727775</v>
+        <v>299338.5045130559</v>
       </c>
       <c r="N6" t="n">
-        <v>435114.1110066146</v>
+        <v>434139.5197468931</v>
       </c>
       <c r="O6" t="n">
-        <v>435114.1110066144</v>
+        <v>434139.5197468929</v>
       </c>
       <c r="P6" t="n">
-        <v>435114.1110066148</v>
+        <v>434139.5197468926</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.97466035841444</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>299.8224335189132</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27554,10 +27554,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>11.62584915701513</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>118.9239026052188</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>194.8717382334054</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>158.9993246194566</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>80.49006577330424</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>102.6359689152491</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>263.7855734052893</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>180.8608564976364</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31375,7 +31375,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>162.4518126576413</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31615,28 +31615,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,37 +31840,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>331.8073893088567</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>362.5890066571938</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,16 +32077,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>34.77051449707545</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -32095,19 +32095,19 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32314,16 +32314,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813462</v>
@@ -32332,7 +32332,7 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>285.0631269188133</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,34 +32548,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>176.1022532102877</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,34 +32785,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,22 +33022,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>191.9134873893287</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33046,10 +33046,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,37 +33262,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>386.0590603056891</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,37 +33499,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>244.3198586194258</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,16 +33675,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,37 +33736,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,16 +33912,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,37 +33973,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>225.9373985850584</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,37 +34134,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,40 +34207,40 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>285.0631269188124</v>
+        <v>102.4943942860908</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,37 +34371,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.490283364748</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,28 +34444,28 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>209.9396523866405</v>
+        <v>129.3623873097339</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -34477,7 +34477,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,7 +35023,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>193.2530095289825</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>686.1600364851754</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>358.341544325057</v>
+        <v>16.86391410134428</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>151.0887195044831</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>524.1029154705079</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>525.0887213238659</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>515.4845172173103</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>618.3450258292741</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>106.4784196450668</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37326,10 +37326,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>743.8435194674529</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37563,10 +37563,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>458.2233641086434</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>64.38097739326282</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490674</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>151.0887195044822</v>
+        <v>286.9827555116977</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507419</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>533.5106822146221</v>
+        <v>452.9334171377155</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2319727.23377371</v>
+        <v>2324666.496622742</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>592909.6145195157</v>
+        <v>414071.1419074791</v>
       </c>
     </row>
     <row r="8">
@@ -664,16 +664,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>113.9617365018818</v>
+        <v>169.5746433961708</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>144.54503968478</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>57.44899573820114</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>311.4936872159399</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>63.57678144609353</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>66.17512620685359</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>198.9945488676096</v>
+        <v>111.5325102172744</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>95.31089658769019</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.7644211441605784</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2019,10 +2019,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>55.43957709489211</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>109.6778012403077</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>64.34190763938388</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>27.95833909584147</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,13 +3009,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>200.4177990254176</v>
+        <v>26.15603929387842</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>149.0799667719507</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,7 +3246,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>19.78862110391533</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3483,10 +3483,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>56.5119402077288</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>203.8435192151917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1289.01781586839</v>
+        <v>601.1385180919704</v>
       </c>
       <c r="C2" t="n">
-        <v>920.0552989279786</v>
+        <v>232.1760011515586</v>
       </c>
       <c r="D2" t="n">
-        <v>561.7896003212281</v>
+        <v>232.1760011515586</v>
       </c>
       <c r="E2" t="n">
-        <v>176.0013477229839</v>
+        <v>232.1760011515586</v>
       </c>
       <c r="F2" t="n">
-        <v>169.0558469737804</v>
+        <v>225.2305004023552</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>1289.01781586839</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y2" t="n">
-        <v>1289.01781586839</v>
+        <v>601.1385180919704</v>
       </c>
     </row>
     <row r="3">
@@ -4406,34 +4406,34 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073964</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>336.2769833124031</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>336.2769833124031</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>336.2769833124031</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>336.2769833124031</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>882.8926947117852</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117852</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
         <v>882.8926947117852</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2584.09111292427</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2330.329327562361</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1999.266440218791</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1646.497784948677</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1273.032026687597</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="Y5" t="n">
-        <v>882.8926947117852</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H7" t="n">
         <v>190.2718927217162</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>631.8685032349517</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>417.5800800531144</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4895,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>452.5377573864724</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>1131.836193506796</v>
+        <v>1778.261399527878</v>
       </c>
       <c r="N12" t="n">
-        <v>1476.356849144414</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O12" t="n">
-        <v>2145.820610447073</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>394.5250474102529</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="C13" t="n">
-        <v>394.5250474102529</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D13" t="n">
-        <v>394.5250474102529</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1044.311772267568</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>843.3071774518004</v>
+        <v>1131.572681122445</v>
       </c>
       <c r="X13" t="n">
-        <v>615.317626553783</v>
+        <v>1131.572681122445</v>
       </c>
       <c r="Y13" t="n">
-        <v>394.5250474102529</v>
+        <v>910.7801019789154</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1122.004430061687</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M15" t="n">
-        <v>1138.699705022018</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N15" t="n">
-        <v>1138.699705022018</v>
+        <v>1569.24764349283</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2238.711404795489</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324571</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954965</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="17">
@@ -5515,19 +5515,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5603,16 +5603,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M18" t="n">
-        <v>334.288126757867</v>
+        <v>629.3975440735812</v>
       </c>
       <c r="N18" t="n">
-        <v>1138.699705022018</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>412.2823606383756</v>
+        <v>675.007103038344</v>
       </c>
       <c r="C19" t="n">
-        <v>412.2823606383756</v>
+        <v>675.007103038344</v>
       </c>
       <c r="D19" t="n">
-        <v>412.2823606383756</v>
+        <v>675.007103038344</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1098.712528333286</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>1098.712528333286</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W19" t="n">
-        <v>1042.712955510163</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X19" t="n">
-        <v>814.7234046121455</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y19" t="n">
-        <v>593.9308254686154</v>
+        <v>675.007103038344</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,13 +5764,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5843,7 +5843,7 @@
         <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>395.2468244550147</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C22" t="n">
-        <v>395.2468244550147</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1388.13061273941</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1388.13061273941</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>1388.13061273941</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="V22" t="n">
-        <v>1133.446124533523</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="W22" t="n">
-        <v>844.0289544965622</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="X22" t="n">
-        <v>616.0394035985448</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="Y22" t="n">
-        <v>395.2468244550147</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="23">
@@ -5968,67 +5968,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6080,7 +6080,7 @@
         <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O24" t="n">
         <v>2623.573505376138</v>
@@ -6223,37 +6223,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6262,7 +6262,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
@@ -6293,19 +6293,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K27" t="n">
         <v>508.1073603047985</v>
@@ -6317,7 +6317,7 @@
         <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>2623.573505376138</v>
+        <v>2234.893232091767</v>
       </c>
       <c r="O27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>846.3978353108171</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>677.4616523829102</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1164.055751909234</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>874.6385818722731</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>846.3978353108171</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>846.3978353108171</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6442,67 +6442,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6530,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K30" t="n">
-        <v>508.1073603047985</v>
+        <v>389.4337831538639</v>
       </c>
       <c r="L30" t="n">
-        <v>1122.004430061687</v>
+        <v>619.396889022213</v>
       </c>
       <c r="M30" t="n">
-        <v>1890.372576454149</v>
+        <v>1387.765035414674</v>
       </c>
       <c r="N30" t="n">
-        <v>2623.573505376138</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O30" t="n">
-        <v>2623.573505376138</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>266.1532743881928</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V31" t="n">
-        <v>783.5599953231708</v>
+        <v>648.5868613273557</v>
       </c>
       <c r="W31" t="n">
-        <v>494.1428252862102</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="X31" t="n">
-        <v>266.1532743881928</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y31" t="n">
-        <v>266.1532743881928</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="32">
@@ -6697,22 +6697,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6721,13 +6721,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,10 +6776,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
         <v>508.1073603047985</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1348.33044553573</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1124.545030325236</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>835.416391538794</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6925,31 +6925,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6964,10 +6964,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>674.2349604684848</v>
+        <v>604.4337416462789</v>
       </c>
       <c r="C37" t="n">
-        <v>674.2349604684848</v>
+        <v>435.497558718372</v>
       </c>
       <c r="D37" t="n">
-        <v>674.2349604684848</v>
+        <v>285.3809193060363</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>285.3809193060363</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>285.3809193060363</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>117.2055976258569</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>117.2055976258569</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W37" t="n">
-        <v>674.2349604684848</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X37" t="n">
-        <v>674.2349604684848</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="Y37" t="n">
-        <v>674.2349604684848</v>
+        <v>786.0822064765186</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7165,19 +7165,19 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7256,13 +7256,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L39" t="n">
-        <v>1122.004430061687</v>
+        <v>381.3300194168668</v>
       </c>
       <c r="M39" t="n">
-        <v>1890.372576454149</v>
+        <v>1149.698165809328</v>
       </c>
       <c r="N39" t="n">
         <v>1954.109744073479</v>
@@ -7365,16 +7365,16 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>820.5263570570736</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>531.109187020113</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>303.1196361220957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028584</v>
@@ -7390,70 +7390,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>865.5852378527474</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>1669.996816116898</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>2339.460577419557</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,10 +7596,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
         <v>869.3083006011506</v>
@@ -7611,10 +7611,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,10 +7736,10 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1570.408513028025</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>2374.820091292176</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
         <v>2623.573505376138</v>
@@ -7833,16 +7833,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
         <v>325.2066423583032</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9014,10 +9014,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>158.9979480233626</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9251,7 +9251,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9494,7 +9494,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -9731,7 +9731,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -9968,7 +9968,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10205,10 +10205,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>195.7226894765961</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11153,10 +11153,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>87.52844946898139</v>
+        <v>174.9904881193166</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>156.8267467361378</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>145.6695415024086</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>231.0834212416989</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>88.24300874329558</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>221.8954447591935</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24603,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>197.7513162931957</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,10 +24855,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>51.71984429841038</v>
+        <v>225.9816040299496</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>48.84084321165253</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>90.63062436035666</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>230.0110581288622</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>14.74113413690304</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26316,28 +26316,28 @@
         <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="G2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="H2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="I2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="J2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="K2" t="n">
         <v>527889.2306459071</v>
@@ -26346,16 +26346,16 @@
         <v>527889.230645907</v>
       </c>
       <c r="M2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="N2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="O2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.2306459069</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.1391806191</v>
+      </c>
+      <c r="C4" t="n">
         <v>139059.139180619</v>
       </c>
-      <c r="C4" t="n">
-        <v>139059.1391806191</v>
-      </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758694</v>
@@ -26441,25 +26441,25 @@
         <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759236</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
+        <v>787.7936905759134</v>
+      </c>
+      <c r="P4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="P4" t="n">
-        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-257682.9018001819</v>
+        <v>-257682.9018001818</v>
       </c>
       <c r="C6" t="n">
-        <v>332284.9774143628</v>
+        <v>332284.9774143627</v>
       </c>
       <c r="D6" t="n">
         <v>332284.9774143625</v>
       </c>
       <c r="E6" t="n">
-        <v>-91020.51673000341</v>
+        <v>-90143.38459625367</v>
       </c>
       <c r="F6" t="n">
-        <v>434139.5197468929</v>
+        <v>435016.6518806425</v>
       </c>
       <c r="G6" t="n">
-        <v>434139.5197468929</v>
+        <v>435016.6518806423</v>
       </c>
       <c r="H6" t="n">
-        <v>434139.519746893</v>
+        <v>435016.6518806422</v>
       </c>
       <c r="I6" t="n">
-        <v>434139.5197468927</v>
+        <v>435016.6518806422</v>
       </c>
       <c r="J6" t="n">
-        <v>257716.3005542998</v>
+        <v>258593.4326880496</v>
       </c>
       <c r="K6" t="n">
-        <v>434139.519746893</v>
+        <v>435016.6518806425</v>
       </c>
       <c r="L6" t="n">
-        <v>434139.5197468929</v>
+        <v>435016.6518806423</v>
       </c>
       <c r="M6" t="n">
-        <v>299338.5045130559</v>
+        <v>300215.6366468055</v>
       </c>
       <c r="N6" t="n">
-        <v>434139.5197468931</v>
+        <v>435016.6518806422</v>
       </c>
       <c r="O6" t="n">
-        <v>434139.5197468929</v>
+        <v>435016.6518806422</v>
       </c>
       <c r="P6" t="n">
-        <v>434139.5197468926</v>
+        <v>435016.6518806422</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>299.8224335189132</v>
+        <v>244.2095266246242</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>11.62584915701513</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>158.9993246194566</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>58.2374134625291</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27782,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>82.85718120047564</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>80.49006577330424</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -29574,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31375,7 +31375,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576415</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31615,7 +31615,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31843,34 +31843,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>362.5890066571938</v>
+        <v>339.3147979156456</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32077,13 +32077,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -32095,10 +32095,10 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>134.1657216706757</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32323,10 +32323,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>213.9849829127209</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32335,16 +32335,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,25 +32463,25 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>392.6063366508803</v>
+        <v>141.3402618185954</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32578,10 +32578,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,16 +32727,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>392.6063366508803</v>
+        <v>141.3402618185954</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32815,10 +32815,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33034,13 +33034,13 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>392.6063366508803</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>141.3402618185954</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -33052,10 +33052,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33265,16 +33265,16 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>168.5445774098391</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33289,10 +33289,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33508,7 +33508,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
         <v>392.6063366508803</v>
@@ -33526,10 +33526,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,16 +33675,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946997</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33745,7 +33745,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
         <v>392.6063366508803</v>
@@ -33763,10 +33763,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,16 +33912,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33976,16 +33976,16 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>54.69678998811293</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,16 +34140,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34213,22 +34213,22 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>102.4943942860908</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -34237,10 +34237,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>129.3623873097339</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34474,10 +34474,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,19 +35023,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>686.1600364851754</v>
+        <v>662.8858277436271</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>16.86391410134428</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>318.6540828962826</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,19 +35971,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>239.4656922197789</v>
+        <v>537.5560127407025</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>740.6069989111005</v>
+        <v>489.3409240788156</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>740.6069989111005</v>
+        <v>489.3409240788156</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>740.6069989111005</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>392.6063366508805</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>295.1683754480587</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,7 +37156,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
         <v>740.6069989111005</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37323,13 +37323,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,7 +37393,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
         <v>740.6069989111005</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37563,10 +37563,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>286.9827555116979</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>64.38097739326282</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>286.9827555116977</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,13 +38104,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>452.9334171377155</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
